--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55F66F-E2D4-44C5-BFD1-8ED6308A2456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC47D54-A5F3-44A9-992E-C6F757AB8D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16188" yWindow="12756" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="15492" yWindow="12060" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>string</t>
   </si>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>인게임 진입 시 생산량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기의 근원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 근원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -619,6 +627,9 @@
       <c r="A4" s="1">
         <v>1001</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
@@ -630,6 +641,26 @@
       </c>
       <c r="I4" s="1">
         <v>10101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10103</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC47D54-A5F3-44A9-992E-C6F757AB8D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F527A2-D1C3-4574-9EF4-3336B7DAFA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15492" yWindow="12060" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="12495" yWindow="3495" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -189,12 +191,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -203,6 +199,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -525,105 +527,105 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="5" width="13.09765625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.19921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="16.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -643,7 +645,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F527A2-D1C3-4574-9EF4-3336B7DAFA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AEBEEC-CD8A-4DD7-BBFB-3FE5F8FA1347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="3495" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10248" yWindow="2676" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
-    <sheet name="spell" sheetId="1" r:id="rId1"/>
+    <sheet name="spell_source" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>string</t>
   </si>
@@ -98,6 +98,26 @@
   </si>
   <si>
     <t>불의 근원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 근원의 서포트 모듈  BG 리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_module_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 대표 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,10 +220,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,22 +540,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="5" width="13.09765625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="16.19921875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -566,66 +583,84 @@
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -645,7 +680,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1003</v>
       </c>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AEBEEC-CD8A-4DD7-BBFB-3FE5F8FA1347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04B201-BA96-46F8-AD90-583092370167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="2676" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10245" yWindow="2670" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_source" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>string</t>
   </si>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 근원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙의 근원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -390,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,22 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="5" width="13.09765625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="16.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="11" width="16.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -590,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -660,7 +668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -671,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -680,24 +688,64 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>1003</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>10103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10104</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04B201-BA96-46F8-AD90-583092370167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BAD37-3804-4DD8-8442-425245ED0C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="2670" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BAD37-3804-4DD8-8442-425245ED0C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1B00F-D533-4273-821D-23A4D7CBFB7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="2670" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1B00F-D533-4273-821D-23A4D7CBFB7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DE59B-7143-4696-B17F-1C348CC9B9FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="2670" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DE59B-7143-4696-B17F-1C348CC9B9FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B026A5F-6471-4FC7-B95B-17ED9D607F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="2670" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17028" yWindow="4872" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_source" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>string</t>
   </si>
@@ -126,6 +126,13 @@
   </si>
   <si>
     <t>흙의 근원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_support_module_bg_temp</t>
+  </si>
+  <si>
+    <t>img_spell_source_temp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -398,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,18 +559,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="16.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="5" width="13.09765625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="16.19921875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -598,7 +605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -668,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -687,8 +694,14 @@
       <c r="I4" s="1">
         <v>10101</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -707,8 +720,14 @@
       <c r="I5" s="1">
         <v>10102</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -727,8 +746,14 @@
       <c r="I6" s="1">
         <v>10103</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -746,6 +771,12 @@
       </c>
       <c r="I7" s="1">
         <v>10104</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B026A5F-6471-4FC7-B95B-17ED9D607F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382813B-7897-4DB9-AF98-D831C1916D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17028" yWindow="4872" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_source" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>string</t>
   </si>
@@ -101,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 근원의 서포트 모듈  BG 리소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>support_module_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>source_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,9 +119,6 @@
   <si>
     <t>흙의 근원</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_support_module_bg_temp</t>
   </si>
   <si>
     <t>img_spell_source_temp</t>
@@ -555,22 +544,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="1"/>
     <col min="2" max="5" width="13.09765625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="16.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="6" max="10" width="16.19921875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -599,13 +588,10 @@
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -634,13 +620,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -669,13 +652,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -695,18 +675,15 @@
         <v>10101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
@@ -721,13 +698,10 @@
         <v>10102</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -747,18 +721,15 @@
         <v>10103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
@@ -773,10 +744,7 @@
         <v>10104</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382813B-7897-4DB9-AF98-D831C1916D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00943D-97BC-4AC6-A774-C7FCD1B51762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17730" yWindow="5565" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_source" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,18 +548,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="5" width="13.09765625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="16.19921875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="16.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -701,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -735,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>10104</v>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00943D-97BC-4AC6-A774-C7FCD1B51762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A5D3E-B24B-4429-9AED-3FE007A54763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17730" yWindow="5565" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>

--- a/GameData/Excel/spell_source.xlsx
+++ b/GameData/Excel/spell_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A5D3E-B24B-4429-9AED-3FE007A54763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3567FB81-D641-4E57-B261-5B4E3651F9D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17730" yWindow="5565" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>10104</v>
